--- a/config_9.29/task_zajindan_server.xlsx
+++ b/config_9.29/task_zajindan_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_9.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6099" uniqueCount="1768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6101" uniqueCount="1770">
   <si>
     <t>id|任务id</t>
   </si>
@@ -9369,82 +9369,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>金秋送豪礼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计抽取3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\6\10\20\100\300\600\1200\2000\4000\8000\15000\50000\100000福利券</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城累计充值6\48\198\500\2498元</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_027_mfflq</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,3,4,10,90,200,300,600,800,2000,4000,7000,35000,50000</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,4200,15000,30200,199800</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>task_award_receive</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -9465,63 +9389,12 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1315,21316,21317,21318</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>shop_gold_sum</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>jing_bi</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>47,648,649,650,651,652,653,654,655,656,657,658,659,660</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>61,662,663,664,665</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>gift_id</t>
@@ -10531,6 +10404,63 @@
       </rPr>
       <t>000000,4000000</t>
     </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计抽取3\6\10\20\50\100\300\600\1200\2000\4000\8000\15000\50000\100000福利券</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_027_mfflq</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城累计充值3\10\48\198\500\2498元</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆送豪礼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3,4,10,30,50,200,300,600,800,2000,4000,7000,35000,50000</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,700,3800,15000,30200,199800</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>647,648,649,650,651,652,653,654,655,656,657,658,659,660,728</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>661,662,663,664,665,729</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>21315,21316,21317,21318,1000046,1000047,1000048,1000052,1000053,1000054,1000055,1000056,1000057,1000058,1000059,1000060</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -11436,7 +11366,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D446" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D479" sqref="D479"/>
+      <selection pane="bottomRight" activeCell="A457" sqref="A457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25767,10 +25697,10 @@
         <v>1490</v>
       </c>
       <c r="D368" s="99" t="s">
-        <v>1671</v>
+        <v>1662</v>
       </c>
       <c r="E368" s="98" t="s">
-        <v>1672</v>
+        <v>1663</v>
       </c>
       <c r="F368" s="98" t="s">
         <v>1491</v>
@@ -25805,10 +25735,10 @@
         <v>1490</v>
       </c>
       <c r="D369" s="99" t="s">
-        <v>1683</v>
+        <v>1674</v>
       </c>
       <c r="E369" s="98" t="s">
-        <v>1672</v>
+        <v>1663</v>
       </c>
       <c r="F369" s="98" t="s">
         <v>1491</v>
@@ -25843,10 +25773,10 @@
         <v>1490</v>
       </c>
       <c r="D370" s="98" t="s">
-        <v>1684</v>
+        <v>1675</v>
       </c>
       <c r="E370" s="98" t="s">
-        <v>1672</v>
+        <v>1663</v>
       </c>
       <c r="F370" s="98" t="s">
         <v>1491</v>
@@ -25881,10 +25811,10 @@
         <v>1492</v>
       </c>
       <c r="D371" s="98" t="s">
-        <v>1685</v>
+        <v>1676</v>
       </c>
       <c r="E371" s="98" t="s">
-        <v>1672</v>
+        <v>1663</v>
       </c>
       <c r="F371" s="98" t="s">
         <v>1491</v>
@@ -27974,7 +27904,7 @@
         <v>1498</v>
       </c>
       <c r="E426" s="114" t="s">
-        <v>1724</v>
+        <v>1715</v>
       </c>
       <c r="F426" s="113" t="s">
         <v>855</v>
@@ -28351,7 +28281,7 @@
         <v>1549</v>
       </c>
       <c r="D436" s="16" t="s">
-        <v>1637</v>
+        <v>1628</v>
       </c>
       <c r="E436" s="16" t="s">
         <v>1551</v>
@@ -28682,79 +28612,79 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="445" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A445" s="12">
+    <row r="445" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A445" s="9">
         <v>1000034</v>
       </c>
-      <c r="B445" s="12">
-        <v>1</v>
-      </c>
-      <c r="C445" s="16" t="s">
-        <v>1583</v>
-      </c>
-      <c r="D445" s="16" t="s">
-        <v>1584</v>
-      </c>
-      <c r="E445" s="16" t="s">
-        <v>1586</v>
-      </c>
-      <c r="F445" s="16" t="s">
-        <v>855</v>
-      </c>
-      <c r="G445" s="12">
+      <c r="B445" s="9">
+        <v>1</v>
+      </c>
+      <c r="C445" s="51" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D445" s="51" t="s">
+        <v>1759</v>
+      </c>
+      <c r="E445" s="51" t="s">
+        <v>1760</v>
+      </c>
+      <c r="F445" s="51" t="s">
+        <v>1761</v>
+      </c>
+      <c r="G445" s="9">
         <v>21392</v>
       </c>
-      <c r="H445" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I445" s="12">
-        <v>1</v>
-      </c>
-      <c r="J445" s="12">
+      <c r="H445" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I445" s="9">
+        <v>1</v>
+      </c>
+      <c r="J445" s="9">
         <v>1598889600</v>
       </c>
-      <c r="K445" s="12">
+      <c r="K445" s="9">
         <v>1599494399</v>
       </c>
-      <c r="L445" s="12">
+      <c r="L445" s="9">
         <v>-1</v>
       </c>
     </row>
-    <row r="446" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A446" s="12">
+    <row r="446" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A446" s="9">
         <v>1000035</v>
       </c>
-      <c r="B446" s="12">
-        <v>1</v>
-      </c>
-      <c r="C446" s="16" t="s">
-        <v>1583</v>
-      </c>
-      <c r="D446" s="16" t="s">
-        <v>1585</v>
-      </c>
-      <c r="E446" s="16" t="s">
-        <v>1586</v>
-      </c>
-      <c r="F446" s="16" t="s">
-        <v>855</v>
-      </c>
-      <c r="G446" s="12">
+      <c r="B446" s="9">
+        <v>1</v>
+      </c>
+      <c r="C446" s="51" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D446" s="51" t="s">
+        <v>1762</v>
+      </c>
+      <c r="E446" s="51" t="s">
+        <v>1760</v>
+      </c>
+      <c r="F446" s="51" t="s">
+        <v>1761</v>
+      </c>
+      <c r="G446" s="9">
         <v>21393</v>
       </c>
-      <c r="H446" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I446" s="12">
-        <v>1</v>
-      </c>
-      <c r="J446" s="12">
+      <c r="H446" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I446" s="9">
+        <v>1</v>
+      </c>
+      <c r="J446" s="9">
         <v>1598889600</v>
       </c>
-      <c r="K446" s="12">
+      <c r="K446" s="9">
         <v>1599494399</v>
       </c>
-      <c r="L446" s="12">
+      <c r="L446" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -28766,13 +28696,13 @@
         <v>1</v>
       </c>
       <c r="C447" s="61" t="s">
-        <v>1602</v>
+        <v>1593</v>
       </c>
       <c r="D447" s="84" t="s">
-        <v>1603</v>
+        <v>1594</v>
       </c>
       <c r="E447" s="84" t="s">
-        <v>1634</v>
+        <v>1625</v>
       </c>
       <c r="F447" s="84" t="s">
         <v>855</v>
@@ -28804,13 +28734,13 @@
         <v>1</v>
       </c>
       <c r="C448" s="84" t="s">
-        <v>1608</v>
+        <v>1599</v>
       </c>
       <c r="D448" s="84" t="s">
-        <v>1609</v>
+        <v>1600</v>
       </c>
       <c r="E448" s="84" t="s">
-        <v>1604</v>
+        <v>1595</v>
       </c>
       <c r="F448" s="84" t="s">
         <v>855</v>
@@ -28842,13 +28772,13 @@
         <v>1</v>
       </c>
       <c r="C449" s="61" t="s">
-        <v>1602</v>
+        <v>1593</v>
       </c>
       <c r="D449" s="84" t="s">
-        <v>1610</v>
+        <v>1601</v>
       </c>
       <c r="E449" s="84" t="s">
-        <v>1618</v>
+        <v>1609</v>
       </c>
       <c r="F449" s="84" t="s">
         <v>855</v>
@@ -28880,13 +28810,13 @@
         <v>1</v>
       </c>
       <c r="C450" s="84" t="s">
-        <v>1608</v>
+        <v>1599</v>
       </c>
       <c r="D450" s="84" t="s">
-        <v>1611</v>
+        <v>1602</v>
       </c>
       <c r="E450" s="84" t="s">
-        <v>1618</v>
+        <v>1609</v>
       </c>
       <c r="F450" s="84" t="s">
         <v>855</v>
@@ -28918,13 +28848,13 @@
         <v>1</v>
       </c>
       <c r="C451" s="61" t="s">
-        <v>1602</v>
+        <v>1593</v>
       </c>
       <c r="D451" s="84" t="s">
-        <v>1612</v>
+        <v>1603</v>
       </c>
       <c r="E451" s="84" t="s">
-        <v>1633</v>
+        <v>1624</v>
       </c>
       <c r="F451" s="84" t="s">
         <v>855</v>
@@ -28956,13 +28886,13 @@
         <v>1</v>
       </c>
       <c r="C452" s="84" t="s">
-        <v>1608</v>
+        <v>1599</v>
       </c>
       <c r="D452" s="84" t="s">
-        <v>1613</v>
+        <v>1604</v>
       </c>
       <c r="E452" s="84" t="s">
-        <v>1618</v>
+        <v>1609</v>
       </c>
       <c r="F452" s="84" t="s">
         <v>855</v>
@@ -28994,13 +28924,13 @@
         <v>1</v>
       </c>
       <c r="C453" s="61" t="s">
-        <v>1602</v>
+        <v>1593</v>
       </c>
       <c r="D453" s="84" t="s">
-        <v>1614</v>
+        <v>1605</v>
       </c>
       <c r="E453" s="84" t="s">
-        <v>1618</v>
+        <v>1609</v>
       </c>
       <c r="F453" s="84" t="s">
         <v>855</v>
@@ -29032,13 +28962,13 @@
         <v>1</v>
       </c>
       <c r="C454" s="84" t="s">
-        <v>1608</v>
+        <v>1599</v>
       </c>
       <c r="D454" s="84" t="s">
-        <v>1615</v>
+        <v>1606</v>
       </c>
       <c r="E454" s="84" t="s">
-        <v>1618</v>
+        <v>1609</v>
       </c>
       <c r="F454" s="84" t="s">
         <v>855</v>
@@ -29070,13 +29000,13 @@
         <v>1</v>
       </c>
       <c r="C455" s="61" t="s">
-        <v>1602</v>
+        <v>1593</v>
       </c>
       <c r="D455" s="84" t="s">
-        <v>1616</v>
+        <v>1607</v>
       </c>
       <c r="E455" s="84" t="s">
-        <v>1618</v>
+        <v>1609</v>
       </c>
       <c r="F455" s="84" t="s">
         <v>855</v>
@@ -29108,13 +29038,13 @@
         <v>1</v>
       </c>
       <c r="C456" s="84" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D456" s="84" t="s">
         <v>1608</v>
       </c>
-      <c r="D456" s="84" t="s">
-        <v>1617</v>
-      </c>
       <c r="E456" s="84" t="s">
-        <v>1618</v>
+        <v>1609</v>
       </c>
       <c r="F456" s="84" t="s">
         <v>855</v>
@@ -29146,16 +29076,16 @@
         <v>1</v>
       </c>
       <c r="C457" s="98" t="s">
-        <v>1639</v>
+        <v>1630</v>
       </c>
       <c r="D457" s="99" t="s">
-        <v>1703</v>
+        <v>1694</v>
       </c>
       <c r="E457" s="98" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="F457" s="98" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
       <c r="G457" s="97">
         <v>21404</v>
@@ -29184,16 +29114,16 @@
         <v>1</v>
       </c>
       <c r="C458" s="98" t="s">
-        <v>1640</v>
+        <v>1631</v>
       </c>
       <c r="D458" s="99" t="s">
-        <v>1704</v>
+        <v>1695</v>
       </c>
       <c r="E458" s="98" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="F458" s="98" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
       <c r="G458" s="97">
         <v>21405</v>
@@ -29222,16 +29152,16 @@
         <v>1</v>
       </c>
       <c r="C459" s="98" t="s">
-        <v>1639</v>
+        <v>1630</v>
       </c>
       <c r="D459" s="98" t="s">
-        <v>1705</v>
+        <v>1696</v>
       </c>
       <c r="E459" s="98" t="s">
-        <v>1717</v>
+        <v>1708</v>
       </c>
       <c r="F459" s="98" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
       <c r="G459" s="97">
         <v>21406</v>
@@ -29260,16 +29190,16 @@
         <v>1</v>
       </c>
       <c r="C460" s="7" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
       <c r="D460" s="7" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="E460" s="7" t="s">
-        <v>1647</v>
+        <v>1638</v>
       </c>
       <c r="F460" s="7" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
       <c r="G460" s="97">
         <v>21407</v>
@@ -29298,16 +29228,16 @@
         <v>1</v>
       </c>
       <c r="C461" s="7" t="s">
-        <v>1649</v>
+        <v>1640</v>
       </c>
       <c r="D461" s="7" t="s">
-        <v>1652</v>
+        <v>1643</v>
       </c>
       <c r="E461" s="7" t="s">
-        <v>1647</v>
+        <v>1638</v>
       </c>
       <c r="F461" s="49" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
       <c r="G461" s="97">
         <v>21408</v>
@@ -29336,16 +29266,16 @@
         <v>1</v>
       </c>
       <c r="C462" s="7" t="s">
-        <v>1650</v>
+        <v>1641</v>
       </c>
       <c r="D462" s="7" t="s">
-        <v>1653</v>
+        <v>1644</v>
       </c>
       <c r="E462" s="7" t="s">
-        <v>1647</v>
+        <v>1638</v>
       </c>
       <c r="F462" s="7" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
       <c r="G462" s="97">
         <v>21409</v>
@@ -29374,16 +29304,16 @@
         <v>1</v>
       </c>
       <c r="C463" s="51" t="s">
-        <v>1659</v>
+        <v>1650</v>
       </c>
       <c r="D463" s="51" t="s">
-        <v>1673</v>
+        <v>1664</v>
       </c>
       <c r="E463" s="51" t="s">
-        <v>1674</v>
+        <v>1665</v>
       </c>
       <c r="F463" s="51" t="s">
-        <v>1660</v>
+        <v>1651</v>
       </c>
       <c r="G463" s="51">
         <v>21410</v>
@@ -29415,10 +29345,10 @@
         <v>1490</v>
       </c>
       <c r="D464" s="99" t="s">
-        <v>1679</v>
+        <v>1670</v>
       </c>
       <c r="E464" s="98" t="s">
-        <v>1670</v>
+        <v>1661</v>
       </c>
       <c r="F464" s="98" t="s">
         <v>1491</v>
@@ -29453,10 +29383,10 @@
         <v>1490</v>
       </c>
       <c r="D465" s="99" t="s">
-        <v>1680</v>
+        <v>1671</v>
       </c>
       <c r="E465" s="98" t="s">
-        <v>1670</v>
+        <v>1661</v>
       </c>
       <c r="F465" s="98" t="s">
         <v>1491</v>
@@ -29491,10 +29421,10 @@
         <v>1490</v>
       </c>
       <c r="D466" s="98" t="s">
-        <v>1681</v>
+        <v>1672</v>
       </c>
       <c r="E466" s="98" t="s">
-        <v>1670</v>
+        <v>1661</v>
       </c>
       <c r="F466" s="98" t="s">
         <v>1491</v>
@@ -29529,10 +29459,10 @@
         <v>1490</v>
       </c>
       <c r="D467" s="98" t="s">
-        <v>1682</v>
+        <v>1673</v>
       </c>
       <c r="E467" s="98" t="s">
-        <v>1670</v>
+        <v>1661</v>
       </c>
       <c r="F467" s="98" t="s">
         <v>1491</v>
@@ -29564,16 +29494,16 @@
         <v>1</v>
       </c>
       <c r="C468" s="51" t="s">
-        <v>1659</v>
+        <v>1650</v>
       </c>
       <c r="D468" s="51" t="s">
-        <v>1675</v>
+        <v>1666</v>
       </c>
       <c r="E468" s="51" t="s">
-        <v>1676</v>
+        <v>1667</v>
       </c>
       <c r="F468" s="51" t="s">
-        <v>1660</v>
+        <v>1651</v>
       </c>
       <c r="G468" s="97">
         <v>21415</v>
@@ -29602,16 +29532,16 @@
         <v>1</v>
       </c>
       <c r="C469" s="98" t="s">
-        <v>1639</v>
+        <v>1630</v>
       </c>
       <c r="D469" s="99" t="s">
-        <v>1706</v>
+        <v>1697</v>
       </c>
       <c r="E469" s="98" t="s">
-        <v>1709</v>
+        <v>1700</v>
       </c>
       <c r="F469" s="98" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
       <c r="G469" s="97">
         <v>21416</v>
@@ -29640,16 +29570,16 @@
         <v>1</v>
       </c>
       <c r="C470" s="98" t="s">
-        <v>1639</v>
+        <v>1630</v>
       </c>
       <c r="D470" s="99" t="s">
-        <v>1707</v>
+        <v>1698</v>
       </c>
       <c r="E470" s="98" t="s">
-        <v>1709</v>
+        <v>1700</v>
       </c>
       <c r="F470" s="98" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
       <c r="G470" s="97">
         <v>21417</v>
@@ -29678,16 +29608,16 @@
         <v>1</v>
       </c>
       <c r="C471" s="98" t="s">
-        <v>1639</v>
+        <v>1630</v>
       </c>
       <c r="D471" s="98" t="s">
-        <v>1708</v>
+        <v>1699</v>
       </c>
       <c r="E471" s="98" t="s">
-        <v>1709</v>
+        <v>1700</v>
       </c>
       <c r="F471" s="98" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
       <c r="G471" s="97">
         <v>21418</v>
@@ -29716,16 +29646,16 @@
         <v>1</v>
       </c>
       <c r="C472" s="49" t="s">
-        <v>1723</v>
+        <v>1714</v>
       </c>
       <c r="D472" s="49" t="s">
-        <v>1726</v>
+        <v>1717</v>
       </c>
       <c r="E472" s="49" t="s">
-        <v>1725</v>
+        <v>1716</v>
       </c>
       <c r="F472" s="49" t="s">
-        <v>1727</v>
+        <v>1718</v>
       </c>
       <c r="G472" s="7">
         <v>21419</v>
@@ -29754,16 +29684,16 @@
         <v>1</v>
       </c>
       <c r="C473" s="49" t="s">
-        <v>1723</v>
+        <v>1714</v>
       </c>
       <c r="D473" s="7" t="s">
-        <v>1754</v>
+        <v>1745</v>
       </c>
       <c r="E473" s="49" t="s">
-        <v>1725</v>
+        <v>1716</v>
       </c>
       <c r="F473" s="49" t="s">
-        <v>1727</v>
+        <v>1718</v>
       </c>
       <c r="G473" s="7">
         <v>21420</v>
@@ -29792,16 +29722,16 @@
         <v>1</v>
       </c>
       <c r="C474" s="49" t="s">
-        <v>1723</v>
+        <v>1714</v>
       </c>
       <c r="D474" s="7" t="s">
-        <v>1719</v>
+        <v>1710</v>
       </c>
       <c r="E474" s="49" t="s">
-        <v>1725</v>
+        <v>1716</v>
       </c>
       <c r="F474" s="49" t="s">
-        <v>1727</v>
+        <v>1718</v>
       </c>
       <c r="G474" s="7">
         <v>21421</v>
@@ -29830,16 +29760,16 @@
         <v>1</v>
       </c>
       <c r="C475" s="49" t="s">
-        <v>1723</v>
+        <v>1714</v>
       </c>
       <c r="D475" s="49" t="s">
-        <v>1737</v>
+        <v>1728</v>
       </c>
       <c r="E475" s="49" t="s">
-        <v>1725</v>
+        <v>1716</v>
       </c>
       <c r="F475" s="49" t="s">
-        <v>1727</v>
+        <v>1718</v>
       </c>
       <c r="G475" s="7">
         <v>21422</v>
@@ -29868,16 +29798,16 @@
         <v>1</v>
       </c>
       <c r="C476" s="49" t="s">
-        <v>1723</v>
+        <v>1714</v>
       </c>
       <c r="D476" s="7" t="s">
-        <v>1720</v>
+        <v>1711</v>
       </c>
       <c r="E476" s="49" t="s">
-        <v>1725</v>
+        <v>1716</v>
       </c>
       <c r="F476" s="49" t="s">
-        <v>1727</v>
+        <v>1718</v>
       </c>
       <c r="G476" s="7">
         <v>21423</v>
@@ -29906,16 +29836,16 @@
         <v>1</v>
       </c>
       <c r="C477" s="49" t="s">
-        <v>1723</v>
+        <v>1714</v>
       </c>
       <c r="D477" s="7" t="s">
-        <v>1721</v>
+        <v>1712</v>
       </c>
       <c r="E477" s="49" t="s">
-        <v>1725</v>
+        <v>1716</v>
       </c>
       <c r="F477" s="49" t="s">
-        <v>1727</v>
+        <v>1718</v>
       </c>
       <c r="G477" s="7">
         <v>21424</v>
@@ -29944,16 +29874,16 @@
         <v>1</v>
       </c>
       <c r="C478" s="49" t="s">
-        <v>1723</v>
+        <v>1714</v>
       </c>
       <c r="D478" s="7" t="s">
-        <v>1722</v>
+        <v>1713</v>
       </c>
       <c r="E478" s="49" t="s">
-        <v>1725</v>
+        <v>1716</v>
       </c>
       <c r="F478" s="49" t="s">
-        <v>1727</v>
+        <v>1718</v>
       </c>
       <c r="G478" s="7">
         <v>21425</v>
@@ -29982,13 +29912,13 @@
         <v>1</v>
       </c>
       <c r="C479" s="49" t="s">
-        <v>1758</v>
+        <v>1749</v>
       </c>
       <c r="D479" s="49" t="s">
-        <v>1759</v>
+        <v>1750</v>
       </c>
       <c r="E479" s="49" t="s">
-        <v>1760</v>
+        <v>1751</v>
       </c>
       <c r="F479" s="61" t="s">
         <v>855</v>
@@ -30026,10 +29956,10 @@
   <dimension ref="A1:K481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C451" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E433" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D479" sqref="D479"/>
+      <selection pane="bottomRight" activeCell="H445" sqref="H445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -30072,7 +30002,7 @@
         <v>917</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1636</v>
+        <v>1627</v>
       </c>
       <c r="K1" s="38"/>
     </row>
@@ -41343,50 +41273,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:10" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A445" s="11">
+    <row r="445" spans="1:10" s="81" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A445" s="10">
         <v>444</v>
       </c>
-      <c r="B445" s="12">
+      <c r="B445" s="9">
         <v>21392</v>
       </c>
-      <c r="C445" s="11"/>
-      <c r="D445" s="11">
+      <c r="C445" s="10"/>
+      <c r="D445" s="10">
         <v>439</v>
       </c>
-      <c r="E445" s="11"/>
-      <c r="F445" s="40" t="s">
-        <v>1587</v>
-      </c>
-      <c r="G445" s="35"/>
-      <c r="H445" s="40" t="s">
-        <v>1597</v>
-      </c>
-      <c r="I445" s="13" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="446" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A446" s="11">
+      <c r="E445" s="10"/>
+      <c r="F445" s="82" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G445" s="79"/>
+      <c r="H445" s="82" t="s">
+        <v>1766</v>
+      </c>
+      <c r="I445" s="19" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A446" s="10">
         <v>445</v>
       </c>
-      <c r="B446" s="12">
+      <c r="B446" s="9">
         <v>21393</v>
       </c>
-      <c r="C446" s="11"/>
-      <c r="D446" s="11">
+      <c r="C446" s="10"/>
+      <c r="D446" s="10">
         <v>440</v>
       </c>
-      <c r="E446" s="11"/>
-      <c r="F446" s="40" t="s">
-        <v>1588</v>
-      </c>
-      <c r="G446" s="35"/>
-      <c r="H446" s="15" t="s">
-        <v>1598</v>
-      </c>
-      <c r="I446" s="13" t="s">
-        <v>856</v>
+      <c r="E446" s="10"/>
+      <c r="F446" s="82" t="s">
+        <v>1765</v>
+      </c>
+      <c r="G446" s="79"/>
+      <c r="H446" s="83" t="s">
+        <v>1767</v>
+      </c>
+      <c r="I446" s="19" t="s">
+        <v>1265</v>
       </c>
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.2">
@@ -41402,11 +41332,11 @@
       </c>
       <c r="E447" s="60"/>
       <c r="F447" s="62" t="s">
-        <v>1605</v>
+        <v>1596</v>
       </c>
       <c r="G447" s="63"/>
       <c r="H447" s="64" t="s">
-        <v>1606</v>
+        <v>1597</v>
       </c>
       <c r="I447" s="85" t="s">
         <v>856</v>
@@ -41428,11 +41358,11 @@
       </c>
       <c r="E448" s="60"/>
       <c r="F448" s="62" t="s">
-        <v>1619</v>
+        <v>1610</v>
       </c>
       <c r="G448" s="63"/>
       <c r="H448" s="64" t="s">
-        <v>1624</v>
+        <v>1615</v>
       </c>
       <c r="I448" s="85" t="s">
         <v>856</v>
@@ -41454,11 +41384,11 @@
       </c>
       <c r="E449" s="60"/>
       <c r="F449" s="62" t="s">
-        <v>1620</v>
+        <v>1611</v>
       </c>
       <c r="G449" s="63"/>
       <c r="H449" s="64" t="s">
-        <v>1625</v>
+        <v>1616</v>
       </c>
       <c r="I449" s="85" t="s">
         <v>856</v>
@@ -41480,11 +41410,11 @@
       </c>
       <c r="E450" s="60"/>
       <c r="F450" s="62" t="s">
-        <v>1621</v>
+        <v>1612</v>
       </c>
       <c r="G450" s="63"/>
       <c r="H450" s="64" t="s">
-        <v>1626</v>
+        <v>1617</v>
       </c>
       <c r="I450" s="85" t="s">
         <v>856</v>
@@ -41506,11 +41436,11 @@
       </c>
       <c r="E451" s="60"/>
       <c r="F451" s="62" t="s">
-        <v>1619</v>
+        <v>1610</v>
       </c>
       <c r="G451" s="63"/>
       <c r="H451" s="64" t="s">
-        <v>1627</v>
+        <v>1618</v>
       </c>
       <c r="I451" s="85" t="s">
         <v>856</v>
@@ -41532,11 +41462,11 @@
       </c>
       <c r="E452" s="60"/>
       <c r="F452" s="62" t="s">
-        <v>1622</v>
+        <v>1613</v>
       </c>
       <c r="G452" s="63"/>
       <c r="H452" s="64" t="s">
-        <v>1628</v>
+        <v>1619</v>
       </c>
       <c r="I452" s="85" t="s">
         <v>856</v>
@@ -41558,11 +41488,11 @@
       </c>
       <c r="E453" s="60"/>
       <c r="F453" s="62" t="s">
-        <v>1619</v>
+        <v>1610</v>
       </c>
       <c r="G453" s="63"/>
       <c r="H453" s="64" t="s">
-        <v>1629</v>
+        <v>1620</v>
       </c>
       <c r="I453" s="85" t="s">
         <v>856</v>
@@ -41584,11 +41514,11 @@
       </c>
       <c r="E454" s="60"/>
       <c r="F454" s="62" t="s">
-        <v>1620</v>
+        <v>1611</v>
       </c>
       <c r="G454" s="63"/>
       <c r="H454" s="64" t="s">
-        <v>1630</v>
+        <v>1621</v>
       </c>
       <c r="I454" s="85" t="s">
         <v>856</v>
@@ -41610,11 +41540,11 @@
       </c>
       <c r="E455" s="60"/>
       <c r="F455" s="62" t="s">
-        <v>1623</v>
+        <v>1614</v>
       </c>
       <c r="G455" s="63"/>
       <c r="H455" s="64" t="s">
-        <v>1631</v>
+        <v>1622</v>
       </c>
       <c r="I455" s="85" t="s">
         <v>856</v>
@@ -41636,11 +41566,11 @@
       </c>
       <c r="E456" s="60"/>
       <c r="F456" s="62" t="s">
-        <v>1619</v>
+        <v>1610</v>
       </c>
       <c r="G456" s="63"/>
       <c r="H456" s="64" t="s">
-        <v>1632</v>
+        <v>1623</v>
       </c>
       <c r="I456" s="85" t="s">
         <v>856</v>
@@ -41666,7 +41596,7 @@
       </c>
       <c r="G457" s="35"/>
       <c r="H457" s="15" t="s">
-        <v>1641</v>
+        <v>1632</v>
       </c>
       <c r="I457" s="13" t="s">
         <v>1197</v>
@@ -41689,7 +41619,7 @@
       </c>
       <c r="G458" s="35"/>
       <c r="H458" s="15" t="s">
-        <v>1642</v>
+        <v>1633</v>
       </c>
       <c r="I458" s="13" t="s">
         <v>1197</v>
@@ -41712,7 +41642,7 @@
       </c>
       <c r="G459" s="35"/>
       <c r="H459" s="15" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
       <c r="I459" s="13" t="s">
         <v>1197</v>
@@ -41726,13 +41656,13 @@
         <v>21407</v>
       </c>
       <c r="F460" s="111" t="s">
-        <v>1654</v>
+        <v>1645</v>
       </c>
       <c r="G460" s="111" t="s">
-        <v>1655</v>
+        <v>1646</v>
       </c>
       <c r="I460" s="14" t="s">
-        <v>1658</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.2">
@@ -41743,10 +41673,10 @@
         <v>21408</v>
       </c>
       <c r="F461" s="111" t="s">
-        <v>1654</v>
+        <v>1645</v>
       </c>
       <c r="G461" s="111" t="s">
-        <v>1656</v>
+        <v>1647</v>
       </c>
       <c r="I461" s="14" t="s">
         <v>856</v>
@@ -41760,10 +41690,10 @@
         <v>21409</v>
       </c>
       <c r="F462" s="111" t="s">
-        <v>1654</v>
+        <v>1645</v>
       </c>
       <c r="G462" s="111" t="s">
-        <v>1657</v>
+        <v>1648</v>
       </c>
       <c r="I462" s="14" t="s">
         <v>856</v>
@@ -41782,14 +41712,14 @@
       </c>
       <c r="E463" s="10"/>
       <c r="F463" s="82" t="s">
-        <v>1718</v>
+        <v>1709</v>
       </c>
       <c r="G463" s="79"/>
       <c r="H463" s="112" t="s">
-        <v>1661</v>
+        <v>1652</v>
       </c>
       <c r="I463" s="19" t="s">
-        <v>1662</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="464" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41809,7 +41739,7 @@
       </c>
       <c r="G464" s="35"/>
       <c r="H464" s="15" t="s">
-        <v>1678</v>
+        <v>1669</v>
       </c>
       <c r="I464" s="13" t="s">
         <v>918</v>
@@ -41832,7 +41762,7 @@
       </c>
       <c r="G465" s="35"/>
       <c r="H465" s="15" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="I465" s="13" t="s">
         <v>918</v>
@@ -41855,7 +41785,7 @@
       </c>
       <c r="G466" s="35"/>
       <c r="H466" s="15" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
       <c r="I466" s="13" t="s">
         <v>918</v>
@@ -41878,7 +41808,7 @@
       </c>
       <c r="G467" s="35"/>
       <c r="H467" s="15" t="s">
-        <v>1699</v>
+        <v>1690</v>
       </c>
       <c r="I467" s="13" t="s">
         <v>918</v>
@@ -41897,14 +41827,14 @@
       </c>
       <c r="E468" s="10"/>
       <c r="F468" s="82" t="s">
-        <v>1718</v>
+        <v>1709</v>
       </c>
       <c r="G468" s="79"/>
       <c r="H468" s="112" t="s">
-        <v>1701</v>
+        <v>1692</v>
       </c>
       <c r="I468" s="19" t="s">
-        <v>1662</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="469" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41924,7 +41854,7 @@
       </c>
       <c r="G469" s="35"/>
       <c r="H469" s="15" t="s">
-        <v>1714</v>
+        <v>1705</v>
       </c>
       <c r="I469" s="13" t="s">
         <v>918</v>
@@ -41947,7 +41877,7 @@
       </c>
       <c r="G470" s="35"/>
       <c r="H470" s="15" t="s">
-        <v>1715</v>
+        <v>1706</v>
       </c>
       <c r="I470" s="13" t="s">
         <v>918</v>
@@ -41970,7 +41900,7 @@
       </c>
       <c r="G471" s="35"/>
       <c r="H471" s="15" t="s">
-        <v>1716</v>
+        <v>1707</v>
       </c>
       <c r="I471" s="13" t="s">
         <v>918</v>
@@ -41989,14 +41919,14 @@
       </c>
       <c r="E472" s="105"/>
       <c r="F472" s="107" t="s">
-        <v>1728</v>
+        <v>1719</v>
       </c>
       <c r="G472" s="108"/>
       <c r="H472" s="105">
         <v>724</v>
       </c>
       <c r="I472" s="106" t="s">
-        <v>1729</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="473" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -42012,14 +41942,14 @@
       </c>
       <c r="E473" s="11"/>
       <c r="F473" s="40" t="s">
-        <v>1755</v>
+        <v>1746</v>
       </c>
       <c r="G473" s="35"/>
       <c r="H473" s="105">
         <v>724</v>
       </c>
       <c r="I473" s="13" t="s">
-        <v>1732</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="474" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -42035,14 +41965,14 @@
       </c>
       <c r="E474" s="11"/>
       <c r="F474" s="40" t="s">
-        <v>1756</v>
+        <v>1747</v>
       </c>
       <c r="G474" s="35"/>
       <c r="H474" s="105">
         <v>724</v>
       </c>
       <c r="I474" s="13" t="s">
-        <v>1733</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.2">
@@ -42056,13 +41986,13 @@
         <v>466</v>
       </c>
       <c r="F475" s="111" t="s">
-        <v>1738</v>
+        <v>1729</v>
       </c>
       <c r="H475" s="105">
         <v>724</v>
       </c>
       <c r="I475" s="14" t="s">
-        <v>1739</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.2">
@@ -42076,13 +42006,13 @@
         <v>467</v>
       </c>
       <c r="F476" s="111" t="s">
-        <v>1748</v>
+        <v>1739</v>
       </c>
       <c r="H476" s="105">
         <v>724</v>
       </c>
       <c r="I476" s="14" t="s">
-        <v>1745</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.2">
@@ -42096,13 +42026,13 @@
         <v>468</v>
       </c>
       <c r="F477" s="111" t="s">
-        <v>1750</v>
+        <v>1741</v>
       </c>
       <c r="H477" s="105">
         <v>724</v>
       </c>
       <c r="I477" s="14" t="s">
-        <v>1745</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.2">
@@ -42116,13 +42046,13 @@
         <v>469</v>
       </c>
       <c r="F478" s="111" t="s">
-        <v>1744</v>
+        <v>1735</v>
       </c>
       <c r="H478" s="105">
         <v>724</v>
       </c>
       <c r="I478" s="14" t="s">
-        <v>1745</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.2">
@@ -42136,10 +42066,10 @@
         <v>470</v>
       </c>
       <c r="F479" s="32" t="s">
-        <v>1761</v>
+        <v>1752</v>
       </c>
       <c r="H479" s="33" t="s">
-        <v>1762</v>
+        <v>1753</v>
       </c>
       <c r="I479" s="1" t="s">
         <v>918</v>
@@ -42163,7 +42093,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I671"/>
   <sheetViews>
-    <sheetView topLeftCell="A652" workbookViewId="0">
+    <sheetView topLeftCell="A646" workbookViewId="0">
       <selection activeCell="C691" sqref="C691"/>
     </sheetView>
   </sheetViews>
@@ -49853,7 +49783,7 @@
         <v>367</v>
       </c>
       <c r="C530" s="86" t="s">
-        <v>1638</v>
+        <v>1629</v>
       </c>
       <c r="D530" s="10">
         <v>253</v>
@@ -51095,7 +51025,7 @@
         <v>439</v>
       </c>
       <c r="C616" s="123" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
       <c r="D616" s="60">
         <v>304</v>
@@ -51110,7 +51040,7 @@
         <v>440</v>
       </c>
       <c r="C617" s="123" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="D617" s="60">
         <v>305</v>
@@ -51125,7 +51055,7 @@
         <v>441</v>
       </c>
       <c r="C618" s="123" t="s">
-        <v>1607</v>
+        <v>1598</v>
       </c>
       <c r="D618" s="60">
         <v>0</v>
@@ -51399,7 +51329,7 @@
         <v>451</v>
       </c>
       <c r="C636" s="86" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
       <c r="D636" s="10">
         <v>315</v>
@@ -51413,7 +51343,7 @@
         <v>452</v>
       </c>
       <c r="C637" s="86" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
       <c r="D637" s="10">
         <v>316</v>
@@ -51427,7 +51357,7 @@
         <v>453</v>
       </c>
       <c r="C638" s="86" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
       <c r="D638" s="10">
         <v>317</v>
@@ -51531,7 +51461,7 @@
         <v>454</v>
       </c>
       <c r="C645" s="26" t="s">
-        <v>1663</v>
+        <v>1654</v>
       </c>
       <c r="D645" s="10">
         <v>0</v>
@@ -51548,7 +51478,7 @@
         <v>454</v>
       </c>
       <c r="C646" s="10" t="s">
-        <v>1664</v>
+        <v>1655</v>
       </c>
       <c r="D646" s="10">
         <v>0</v>
@@ -51563,7 +51493,7 @@
         <v>455</v>
       </c>
       <c r="C647" s="86" t="s">
-        <v>1638</v>
+        <v>1629</v>
       </c>
       <c r="D647" s="10">
         <v>318</v>
@@ -51726,7 +51656,7 @@
         <v>459</v>
       </c>
       <c r="C658" s="10" t="s">
-        <v>1664</v>
+        <v>1655</v>
       </c>
       <c r="D658" s="10">
         <v>0</v>
@@ -51741,7 +51671,7 @@
         <v>460</v>
       </c>
       <c r="C659" s="86" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
       <c r="D659" s="10">
         <v>322</v>
@@ -51755,7 +51685,7 @@
         <v>461</v>
       </c>
       <c r="C660" s="86" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
       <c r="D660" s="10">
         <v>323</v>
@@ -51769,7 +51699,7 @@
         <v>462</v>
       </c>
       <c r="C661" s="86" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
       <c r="D661" s="10">
         <v>324</v>
@@ -51783,7 +51713,7 @@
         <v>463</v>
       </c>
       <c r="C662" s="23" t="s">
-        <v>1730</v>
+        <v>1721</v>
       </c>
       <c r="D662" s="11">
         <v>325</v>
@@ -51797,7 +51727,7 @@
         <v>464</v>
       </c>
       <c r="C663" s="13" t="s">
-        <v>1757</v>
+        <v>1748</v>
       </c>
       <c r="D663" s="12">
         <v>326</v>
@@ -51811,7 +51741,7 @@
         <v>465</v>
       </c>
       <c r="C664" s="13" t="s">
-        <v>1734</v>
+        <v>1725</v>
       </c>
       <c r="D664" s="12">
         <v>327</v>
@@ -51825,7 +51755,7 @@
         <v>466</v>
       </c>
       <c r="C665" s="13" t="s">
-        <v>1740</v>
+        <v>1731</v>
       </c>
       <c r="D665" s="12">
         <v>328</v>
@@ -51839,7 +51769,7 @@
         <v>467</v>
       </c>
       <c r="C666" s="13" t="s">
-        <v>1746</v>
+        <v>1737</v>
       </c>
       <c r="D666" s="12">
         <v>329</v>
@@ -51853,7 +51783,7 @@
         <v>468</v>
       </c>
       <c r="C667" s="13" t="s">
-        <v>1749</v>
+        <v>1740</v>
       </c>
       <c r="D667" s="12">
         <v>330</v>
@@ -51867,7 +51797,7 @@
         <v>469</v>
       </c>
       <c r="C668" s="13" t="s">
-        <v>1751</v>
+        <v>1742</v>
       </c>
       <c r="D668" s="12">
         <v>331</v>
@@ -51881,7 +51811,7 @@
         <v>470</v>
       </c>
       <c r="C669" s="13" t="s">
-        <v>1763</v>
+        <v>1754</v>
       </c>
       <c r="D669" s="12">
         <v>332</v>
@@ -51905,11 +51835,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M453"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C426" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C405" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D457" sqref="D457"/>
+      <selection pane="bottomRight" activeCell="D424" sqref="D424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -59680,7 +59610,7 @@
         <v>302</v>
       </c>
       <c r="C420" s="13" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
       <c r="D420" s="11">
         <v>108</v>
@@ -59714,10 +59644,10 @@
         <v>304</v>
       </c>
       <c r="C422" s="13" t="s">
-        <v>1591</v>
+        <v>1585</v>
       </c>
       <c r="D422" s="15" t="s">
-        <v>1594</v>
+        <v>1769</v>
       </c>
       <c r="E422" s="11">
         <v>2</v>
@@ -59731,10 +59661,10 @@
         <v>304</v>
       </c>
       <c r="C423" s="13" t="s">
-        <v>1592</v>
+        <v>1586</v>
       </c>
       <c r="D423" s="13" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="E423" s="11">
         <v>2</v>
@@ -59748,10 +59678,10 @@
         <v>305</v>
       </c>
       <c r="C424" s="11" t="s">
-        <v>1600</v>
+        <v>1591</v>
       </c>
       <c r="D424" s="11" t="s">
-        <v>1601</v>
+        <v>1592</v>
       </c>
       <c r="E424" s="11">
         <v>2</v>
@@ -60088,7 +60018,7 @@
         <v>325</v>
       </c>
       <c r="C444" s="13" t="s">
-        <v>1731</v>
+        <v>1722</v>
       </c>
       <c r="D444" s="11">
         <v>10000</v>
@@ -60105,7 +60035,7 @@
         <v>326</v>
       </c>
       <c r="C445" s="13" t="s">
-        <v>1735</v>
+        <v>1726</v>
       </c>
       <c r="D445" s="11">
         <v>10000</v>
@@ -60122,7 +60052,7 @@
         <v>326</v>
       </c>
       <c r="C446" s="13" t="s">
-        <v>1736</v>
+        <v>1727</v>
       </c>
       <c r="D446" s="11">
         <v>1</v>
@@ -60139,7 +60069,7 @@
         <v>327</v>
       </c>
       <c r="C447" s="13" t="s">
-        <v>1735</v>
+        <v>1726</v>
       </c>
       <c r="D447" s="11">
         <v>10000</v>
@@ -60156,7 +60086,7 @@
         <v>328</v>
       </c>
       <c r="C448" s="13" t="s">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="D448" s="11">
         <v>1</v>
@@ -60173,10 +60103,10 @@
         <v>328</v>
       </c>
       <c r="C449" s="13" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="D449" s="13" t="s">
-        <v>1743</v>
+        <v>1734</v>
       </c>
       <c r="E449" s="11">
         <v>2</v>
@@ -60190,7 +60120,7 @@
         <v>329</v>
       </c>
       <c r="C450" s="13" t="s">
-        <v>1747</v>
+        <v>1738</v>
       </c>
       <c r="D450" s="11">
         <v>1</v>
@@ -60207,7 +60137,7 @@
         <v>330</v>
       </c>
       <c r="C451" s="13" t="s">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="D451" s="11">
         <v>1</v>
@@ -60224,7 +60154,7 @@
         <v>331</v>
       </c>
       <c r="C452" s="13" t="s">
-        <v>1752</v>
+        <v>1743</v>
       </c>
       <c r="D452" s="11">
         <v>2</v>
@@ -60241,7 +60171,7 @@
         <v>332</v>
       </c>
       <c r="C453" s="11" t="s">
-        <v>1764</v>
+        <v>1755</v>
       </c>
       <c r="D453" s="17">
         <v>1.03171031810319E+34</v>
@@ -60262,11 +60192,11 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:W1100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1088" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C1073" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D1112" sqref="D1112"/>
+      <selection pane="bottomRight" activeCell="B1100" sqref="B1100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -78475,7 +78405,7 @@
         <v>623</v>
       </c>
       <c r="D882" s="14" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="E882" s="33">
         <v>20000</v>
@@ -78753,7 +78683,7 @@
         <v>635</v>
       </c>
       <c r="D897" s="13" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
       <c r="E897" s="33">
         <v>3000</v>
@@ -79292,7 +79222,7 @@
       </c>
       <c r="C923" s="11"/>
       <c r="D923" s="13" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="E923" s="27">
         <v>2</v>
@@ -79313,7 +79243,7 @@
       </c>
       <c r="C924" s="11"/>
       <c r="D924" s="13" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="E924" s="27">
         <v>5</v>
@@ -79334,7 +79264,7 @@
       </c>
       <c r="C925" s="11"/>
       <c r="D925" s="13" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="E925" s="27">
         <v>40</v>
@@ -79355,7 +79285,7 @@
       </c>
       <c r="C926" s="11"/>
       <c r="D926" s="13" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="E926" s="27">
         <v>100</v>
@@ -79376,7 +79306,7 @@
       </c>
       <c r="C927" s="11"/>
       <c r="D927" s="13" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="E927" s="27">
         <v>150</v>
@@ -79397,7 +79327,7 @@
       </c>
       <c r="C928" s="11"/>
       <c r="D928" s="13" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="E928" s="27">
         <v>300</v>
@@ -79418,7 +79348,7 @@
       </c>
       <c r="C929" s="11"/>
       <c r="D929" s="13" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="E929" s="27">
         <v>400</v>
@@ -79439,7 +79369,7 @@
       </c>
       <c r="C930" s="11"/>
       <c r="D930" s="13" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="E930" s="27">
         <v>1000</v>
@@ -79460,7 +79390,7 @@
       </c>
       <c r="C931" s="11"/>
       <c r="D931" s="13" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="E931" s="27">
         <v>2000</v>
@@ -79481,7 +79411,7 @@
       </c>
       <c r="C932" s="11"/>
       <c r="D932" s="13" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="E932" s="27">
         <v>3500</v>
@@ -79502,7 +79432,7 @@
       </c>
       <c r="C933" s="11"/>
       <c r="D933" s="13" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="E933" s="27">
         <v>17000</v>
@@ -79523,7 +79453,7 @@
       </c>
       <c r="C934" s="11"/>
       <c r="D934" s="13" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="E934" s="27">
         <v>32500</v>
@@ -79544,7 +79474,7 @@
       </c>
       <c r="C935" s="11"/>
       <c r="D935" s="13" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="E935" s="27">
         <v>30</v>
@@ -79565,7 +79495,7 @@
       </c>
       <c r="C936" s="11"/>
       <c r="D936" s="13" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="E936" s="27">
         <v>180</v>
@@ -79586,7 +79516,7 @@
       </c>
       <c r="C937" s="11"/>
       <c r="D937" s="13" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="E937" s="27">
         <v>700</v>
@@ -79607,7 +79537,7 @@
       </c>
       <c r="C938" s="11"/>
       <c r="D938" s="13" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="E938" s="27">
         <v>1500</v>
@@ -79628,7 +79558,7 @@
       </c>
       <c r="C939" s="11"/>
       <c r="D939" s="13" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="E939" s="27">
         <v>10000</v>
@@ -79649,7 +79579,7 @@
       </c>
       <c r="C940" s="60"/>
       <c r="D940" s="85" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
       <c r="E940" s="121">
         <v>1</v>
@@ -79667,7 +79597,7 @@
       </c>
       <c r="C941" s="60"/>
       <c r="D941" s="85" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
       <c r="E941" s="121">
         <v>5</v>
@@ -79685,7 +79615,7 @@
       </c>
       <c r="C942" s="60"/>
       <c r="D942" s="85" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
       <c r="E942" s="121">
         <v>12</v>
@@ -79703,7 +79633,7 @@
       </c>
       <c r="C943" s="60"/>
       <c r="D943" s="85" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
       <c r="E943" s="121">
         <v>25</v>
@@ -79721,7 +79651,7 @@
       </c>
       <c r="C944" s="60"/>
       <c r="D944" s="85" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
       <c r="E944" s="121">
         <v>38</v>
@@ -79739,7 +79669,7 @@
       </c>
       <c r="C945" s="60"/>
       <c r="D945" s="85" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
       <c r="E945" s="121">
         <v>78</v>
@@ -79757,7 +79687,7 @@
       </c>
       <c r="C946" s="60"/>
       <c r="D946" s="85" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
       <c r="E946" s="121">
         <v>158</v>
@@ -79775,7 +79705,7 @@
       </c>
       <c r="C947" s="60"/>
       <c r="D947" s="85" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
       <c r="E947" s="121">
         <v>398</v>
@@ -79793,7 +79723,7 @@
       </c>
       <c r="C948" s="60"/>
       <c r="D948" s="85" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
       <c r="E948" s="121">
         <v>798</v>
@@ -79811,7 +79741,7 @@
       </c>
       <c r="C949" s="60"/>
       <c r="D949" s="85" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
       <c r="E949" s="121">
         <v>1998</v>
@@ -80396,10 +80326,10 @@
       </c>
       <c r="C977" s="10"/>
       <c r="D977" s="19" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="E977" s="83" t="s">
-        <v>1666</v>
+        <v>1657</v>
       </c>
       <c r="F977" s="10">
         <v>20</v>
@@ -80414,10 +80344,10 @@
       </c>
       <c r="C978" s="10"/>
       <c r="D978" s="19" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="E978" s="83" t="s">
-        <v>1667</v>
+        <v>1658</v>
       </c>
       <c r="F978" s="10">
         <v>30</v>
@@ -80432,10 +80362,10 @@
       </c>
       <c r="C979" s="10"/>
       <c r="D979" s="19" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="E979" s="83" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
       <c r="F979" s="10">
         <v>50</v>
@@ -80450,7 +80380,7 @@
       </c>
       <c r="C980" s="29"/>
       <c r="D980" s="19" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="E980" s="33">
         <v>30</v>
@@ -80468,7 +80398,7 @@
       </c>
       <c r="C981" s="29"/>
       <c r="D981" s="19" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="E981" s="33">
         <v>40</v>
@@ -80486,7 +80416,7 @@
       </c>
       <c r="C982" s="29"/>
       <c r="D982" s="19" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="E982" s="33">
         <v>50</v>
@@ -80504,7 +80434,7 @@
       </c>
       <c r="C983" s="29"/>
       <c r="D983" s="19" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="E983" s="33">
         <v>50</v>
@@ -80522,7 +80452,7 @@
       </c>
       <c r="C984" s="29"/>
       <c r="D984" s="19" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="E984" s="33">
         <v>80</v>
@@ -80540,7 +80470,7 @@
       </c>
       <c r="C985" s="29"/>
       <c r="D985" s="19" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="E985" s="33">
         <v>100</v>
@@ -80558,7 +80488,7 @@
       </c>
       <c r="C986" s="29"/>
       <c r="D986" s="19" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="E986" s="33">
         <v>150</v>
@@ -80576,7 +80506,7 @@
       </c>
       <c r="C987" s="29"/>
       <c r="D987" s="19" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="E987" s="33">
         <v>180</v>
@@ -80594,7 +80524,7 @@
       </c>
       <c r="C988" s="29"/>
       <c r="D988" s="19" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="E988" s="33">
         <v>200</v>
@@ -80612,7 +80542,7 @@
       </c>
       <c r="C989" s="29"/>
       <c r="D989" s="19" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="E989" s="33">
         <v>300</v>
@@ -80630,7 +80560,7 @@
       </c>
       <c r="C990" s="29"/>
       <c r="D990" s="19" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="E990" s="33">
         <v>400</v>
@@ -80648,7 +80578,7 @@
       </c>
       <c r="C991" s="29"/>
       <c r="D991" s="19" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="E991" s="33">
         <v>500</v>
@@ -80666,7 +80596,7 @@
       </c>
       <c r="C992" s="29"/>
       <c r="D992" s="19" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="E992" s="33">
         <v>800</v>
@@ -80684,7 +80614,7 @@
       </c>
       <c r="C993" s="29"/>
       <c r="D993" s="19" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="E993" s="33">
         <v>900</v>
@@ -80702,7 +80632,7 @@
       </c>
       <c r="C994" s="29"/>
       <c r="D994" s="19" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="E994" s="33">
         <v>1000</v>
@@ -80720,7 +80650,7 @@
       </c>
       <c r="C995" s="29"/>
       <c r="D995" s="19" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="E995" s="33">
         <v>4500</v>
@@ -80738,7 +80668,7 @@
       </c>
       <c r="C996" s="29"/>
       <c r="D996" s="19" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="E996" s="33">
         <v>4800</v>
@@ -80756,7 +80686,7 @@
       </c>
       <c r="C997" s="29"/>
       <c r="D997" s="19" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="E997" s="33">
         <v>5000</v>
@@ -80774,7 +80704,7 @@
       </c>
       <c r="C998" s="29"/>
       <c r="D998" s="19" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="E998" s="33">
         <v>8000</v>
@@ -80792,7 +80722,7 @@
       </c>
       <c r="C999" s="29"/>
       <c r="D999" s="19" t="s">
-        <v>1669</v>
+        <v>1660</v>
       </c>
       <c r="E999" s="33">
         <v>9000</v>
@@ -80810,7 +80740,7 @@
       </c>
       <c r="C1000" s="29"/>
       <c r="D1000" s="19" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="E1000" s="33">
         <v>10000</v>
@@ -80828,7 +80758,7 @@
       </c>
       <c r="C1001" s="29"/>
       <c r="D1001" s="19" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="E1001" s="33">
         <v>15000</v>
@@ -80846,7 +80776,7 @@
       </c>
       <c r="C1002" s="29"/>
       <c r="D1002" s="19" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="E1002" s="33">
         <v>18000</v>
@@ -80864,7 +80794,7 @@
       </c>
       <c r="C1003" s="29"/>
       <c r="D1003" s="19" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="E1003" s="33">
         <v>20000</v>
@@ -80885,7 +80815,7 @@
         <v>877</v>
       </c>
       <c r="E1004" s="64" t="s">
-        <v>1677</v>
+        <v>1668</v>
       </c>
       <c r="F1004" s="60">
         <v>333</v>
@@ -80900,7 +80830,7 @@
       </c>
       <c r="C1005" s="60"/>
       <c r="D1005" s="85" t="s">
-        <v>1686</v>
+        <v>1677</v>
       </c>
       <c r="E1005" s="64" t="s">
         <v>969</v>
@@ -80918,7 +80848,7 @@
       </c>
       <c r="C1006" s="60"/>
       <c r="D1006" s="85" t="s">
-        <v>1687</v>
+        <v>1678</v>
       </c>
       <c r="E1006" s="64" t="s">
         <v>970</v>
@@ -80936,10 +80866,10 @@
       </c>
       <c r="C1007" s="60"/>
       <c r="D1007" s="85" t="s">
-        <v>1689</v>
+        <v>1680</v>
       </c>
       <c r="E1007" s="64" t="s">
-        <v>1688</v>
+        <v>1679</v>
       </c>
       <c r="F1007" s="60">
         <v>333</v>
@@ -80990,10 +80920,10 @@
       </c>
       <c r="C1010" s="60"/>
       <c r="D1010" s="85" t="s">
-        <v>1691</v>
+        <v>1682</v>
       </c>
       <c r="E1010" s="64" t="s">
-        <v>1690</v>
+        <v>1681</v>
       </c>
       <c r="F1010" s="60">
         <v>333</v>
@@ -81044,10 +80974,10 @@
       </c>
       <c r="C1013" s="10"/>
       <c r="D1013" s="19" t="s">
-        <v>1693</v>
+        <v>1684</v>
       </c>
       <c r="E1013" s="83" t="s">
-        <v>1692</v>
+        <v>1683</v>
       </c>
       <c r="F1013" s="10">
         <v>333</v>
@@ -81110,7 +81040,7 @@
         <v>877</v>
       </c>
       <c r="E1016" s="83" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="F1016" s="10">
         <v>333</v>
@@ -81170,7 +81100,7 @@
       </c>
       <c r="C1019" s="10"/>
       <c r="D1019" s="19" t="s">
-        <v>1695</v>
+        <v>1686</v>
       </c>
       <c r="E1019" s="127">
         <v>400000</v>
@@ -81359,7 +81289,7 @@
       </c>
       <c r="C1028" s="10"/>
       <c r="D1028" s="19" t="s">
-        <v>1691</v>
+        <v>1682</v>
       </c>
       <c r="E1028" s="127">
         <v>4000000</v>
@@ -81485,7 +81415,7 @@
       </c>
       <c r="C1034" s="10"/>
       <c r="D1034" s="19" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="E1034" s="127">
         <v>5000000</v>
@@ -81614,7 +81544,7 @@
         <v>877</v>
       </c>
       <c r="E1040" s="83" t="s">
-        <v>1700</v>
+        <v>1691</v>
       </c>
       <c r="F1040" s="10">
         <v>333</v>
@@ -81632,7 +81562,7 @@
         <v>1296</v>
       </c>
       <c r="E1041" s="83" t="s">
-        <v>1667</v>
+        <v>1658</v>
       </c>
       <c r="F1041" s="10">
         <v>333</v>
@@ -81650,7 +81580,7 @@
         <v>1296</v>
       </c>
       <c r="E1042" s="83" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
       <c r="F1042" s="10">
         <v>333</v>
@@ -81827,7 +81757,7 @@
       </c>
       <c r="C1052" s="29"/>
       <c r="D1052" s="19" t="s">
-        <v>1691</v>
+        <v>1682</v>
       </c>
       <c r="E1052" s="33">
         <v>300000</v>
@@ -82097,10 +82027,10 @@
       </c>
       <c r="C1067" s="10"/>
       <c r="D1067" s="19" t="s">
-        <v>1710</v>
+        <v>1701</v>
       </c>
       <c r="E1067" s="83" t="s">
-        <v>1711</v>
+        <v>1702</v>
       </c>
       <c r="F1067" s="10">
         <v>333</v>
@@ -82151,10 +82081,10 @@
       </c>
       <c r="C1070" s="10"/>
       <c r="D1070" s="19" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="E1070" s="83" t="s">
-        <v>1712</v>
+        <v>1703</v>
       </c>
       <c r="F1070" s="10">
         <v>333</v>
@@ -82475,7 +82405,7 @@
       </c>
       <c r="C1088" s="10"/>
       <c r="D1088" s="19" t="s">
-        <v>1713</v>
+        <v>1704</v>
       </c>
       <c r="E1088" s="127">
         <v>5000000</v>
@@ -82484,7 +82414,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="1089" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1089" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1089" s="61">
         <v>1088</v>
       </c>
@@ -82502,7 +82432,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="1090" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1090" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1090" s="61">
         <v>1089</v>
       </c>
@@ -82520,7 +82450,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="1091" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1091" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1091" s="61">
         <v>1090</v>
       </c>
@@ -82538,7 +82468,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="1092" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1092" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1092" s="61">
         <v>1091</v>
       </c>
@@ -82556,7 +82486,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="1093" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1093" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1093" s="61">
         <v>1092</v>
       </c>
@@ -82574,7 +82504,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="1094" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1094" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1094" s="7">
         <v>1093</v>
       </c>
@@ -82582,7 +82512,7 @@
         <v>724</v>
       </c>
       <c r="D1094" s="14" t="s">
-        <v>1753</v>
+        <v>1744</v>
       </c>
       <c r="E1094" s="33">
         <v>10000</v>
@@ -82591,7 +82521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1095" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1095" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1095" s="7">
         <v>1094</v>
       </c>
@@ -82602,13 +82532,13 @@
         <v>877</v>
       </c>
       <c r="E1095" s="65" t="s">
-        <v>1765</v>
+        <v>1756</v>
       </c>
       <c r="F1095" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="1096" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1096" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1096" s="7">
         <v>1095</v>
       </c>
@@ -82619,13 +82549,13 @@
         <v>877</v>
       </c>
       <c r="E1096" s="65" t="s">
-        <v>1766</v>
+        <v>1757</v>
       </c>
       <c r="F1096" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="1097" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1097" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1097" s="7">
         <v>1096</v>
       </c>
@@ -82636,19 +82566,55 @@
         <v>877</v>
       </c>
       <c r="E1097" s="65" t="s">
-        <v>1767</v>
+        <v>1758</v>
       </c>
       <c r="F1097" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="1098" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1098" s="29"/>
-    </row>
-    <row r="1099" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1099" s="29"/>
-    </row>
-    <row r="1100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1098" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1098" s="7">
+        <v>1097</v>
+      </c>
+      <c r="B1098" s="10">
+        <v>728</v>
+      </c>
+      <c r="C1098" s="10"/>
+      <c r="D1098" s="19" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E1098" s="10">
+        <v>32500</v>
+      </c>
+      <c r="F1098" s="10">
+        <v>1</v>
+      </c>
+      <c r="G1098" s="10"/>
+      <c r="H1098" s="10"/>
+      <c r="I1098" s="10"/>
+    </row>
+    <row r="1099" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1099" s="7">
+        <v>1098</v>
+      </c>
+      <c r="B1099" s="10">
+        <v>729</v>
+      </c>
+      <c r="C1099" s="10"/>
+      <c r="D1099" s="19" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E1099" s="10">
+        <v>10000</v>
+      </c>
+      <c r="F1099" s="10">
+        <v>1</v>
+      </c>
+      <c r="G1099" s="10"/>
+      <c r="H1099" s="10"/>
+      <c r="I1099" s="10"/>
+    </row>
+    <row r="1100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1100" s="29"/>
     </row>
   </sheetData>

--- a/config_9.29/task_zajindan_server.xlsx
+++ b/config_9.29/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6101" uniqueCount="1770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6101" uniqueCount="1772">
   <si>
     <t>id|任务id</t>
   </si>
@@ -10462,6 +10462,27 @@
   <si>
     <t>21315,21316,21317,21318,1000046,1000047,1000048,1000052,1000053,1000054,1000055,1000056,1000057,1000058,1000059,1000060</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_027_mfflq</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_029_hlqjd_hammer</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11362,11 +11383,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T479"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D446" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="H434" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A457" sqref="A457"/>
+      <selection pane="bottomRight" activeCell="J460" sqref="J460:K460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28626,7 +28647,7 @@
         <v>1759</v>
       </c>
       <c r="E445" s="51" t="s">
-        <v>1760</v>
+        <v>1770</v>
       </c>
       <c r="F445" s="51" t="s">
         <v>1761</v>
@@ -28641,10 +28662,10 @@
         <v>1</v>
       </c>
       <c r="J445" s="9">
-        <v>1598889600</v>
+        <v>1601942400</v>
       </c>
       <c r="K445" s="9">
-        <v>1599494399</v>
+        <v>1602518399</v>
       </c>
       <c r="L445" s="9">
         <v>-1</v>
@@ -28679,10 +28700,10 @@
         <v>1</v>
       </c>
       <c r="J446" s="9">
-        <v>1598889600</v>
+        <v>1601942400</v>
       </c>
       <c r="K446" s="9">
-        <v>1599494399</v>
+        <v>1602518399</v>
       </c>
       <c r="L446" s="9">
         <v>-1</v>
@@ -29195,8 +29216,8 @@
       <c r="D460" s="7" t="s">
         <v>1642</v>
       </c>
-      <c r="E460" s="7" t="s">
-        <v>1638</v>
+      <c r="E460" s="49" t="s">
+        <v>1771</v>
       </c>
       <c r="F460" s="7" t="s">
         <v>1637</v>
@@ -29211,10 +29232,10 @@
         <v>1</v>
       </c>
       <c r="J460" s="7">
-        <v>1600099200</v>
+        <v>1602547200</v>
       </c>
       <c r="K460" s="7">
-        <v>1600703999</v>
+        <v>1603123199</v>
       </c>
       <c r="L460" s="7">
         <v>-1</v>
@@ -29249,10 +29270,10 @@
         <v>1</v>
       </c>
       <c r="J461" s="7">
-        <v>1600099200</v>
+        <v>1602547200</v>
       </c>
       <c r="K461" s="7">
-        <v>1600703999</v>
+        <v>1603123199</v>
       </c>
       <c r="L461" s="7">
         <v>-1</v>
@@ -29287,10 +29308,10 @@
         <v>1</v>
       </c>
       <c r="J462" s="7">
-        <v>1600099200</v>
+        <v>1602547200</v>
       </c>
       <c r="K462" s="7">
-        <v>1600703999</v>
+        <v>1603123199</v>
       </c>
       <c r="L462" s="7">
         <v>-1</v>
@@ -51835,7 +51856,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M453"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C405" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
